--- a/test_cases/TC-05_.xlsx
+++ b/test_cases/TC-05_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792CDEB3-BD62-4E70-8D2C-BD70B5E46969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9017098-B799-4827-A7F0-8280B1522F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Verificacion de Ciudad</t>
   </si>
   <si>
-    <t>Ciudad = Pinamar</t>
-  </si>
-  <si>
     <t>Ingresar Ciudad S#1</t>
   </si>
   <si>
@@ -208,6 +205,12 @@
   </si>
   <si>
     <t>Regular</t>
+  </si>
+  <si>
+    <t>Ciudad = Miami</t>
+  </si>
+  <si>
+    <t>Funciona</t>
   </si>
 </sst>
 </file>
@@ -856,53 +859,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -918,22 +900,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,7 +1156,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1180,15 +1183,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="60"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1240,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1286,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="23.25" customHeight="1">
@@ -1298,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1">
@@ -1306,11 +1309,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="D10" s="45">
+      <c r="D10" s="71">
         <v>3</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>49</v>
+      <c r="E10" s="72" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1">
@@ -1318,39 +1321,39 @@
         <v>4</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="G14" s="73" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="G14" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="75"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1">
       <c r="A15" s="22" t="s">
@@ -1366,53 +1369,53 @@
       <c r="E15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76" t="s">
+      <c r="H15" s="46"/>
+      <c r="I15" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76" t="s">
+      <c r="J15" s="46"/>
+      <c r="K15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76" t="s">
+      <c r="L15" s="46"/>
+      <c r="M15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="75"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1">
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="77" t="s">
+      <c r="H16" s="46"/>
+      <c r="I16" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="75"/>
-      <c r="K16" s="77" t="s">
+      <c r="J16" s="46"/>
+      <c r="K16" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76" t="s">
+      <c r="L16" s="46"/>
+      <c r="M16" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="75"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="79" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="60"/>
+      <c r="E17" s="49"/>
       <c r="G17" s="27" t="s">
         <v>32</v>
       </c>
@@ -1442,14 +1445,14 @@
       <c r="A18" s="28">
         <v>1</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="60"/>
+      <c r="E18" s="49"/>
       <c r="G18" s="29" t="s">
         <v>36</v>
       </c>
@@ -1477,14 +1480,14 @@
       <c r="A19" s="28">
         <v>2</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="60"/>
+      <c r="E19" s="49"/>
       <c r="G19" s="29" t="s">
         <v>36</v>
       </c>
@@ -1512,12 +1515,14 @@
       <c r="A20" s="28">
         <v>3</v>
       </c>
-      <c r="B20" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="60"/>
+      <c r="B20" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="49"/>
       <c r="G20" s="29" t="s">
         <v>36</v>
       </c>
@@ -1545,14 +1550,14 @@
       <c r="A21" s="35">
         <v>4</v>
       </c>
-      <c r="B21" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="54"/>
+      <c r="B21" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="75"/>
       <c r="G21" s="40" t="s">
         <v>36</v>
       </c>
@@ -1580,14 +1585,14 @@
       <c r="A22" s="41">
         <v>5</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="63"/>
+      <c r="B22" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="54"/>
       <c r="G22" s="42" t="s">
         <v>36</v>
       </c>
@@ -1613,10 +1618,10 @@
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1">
       <c r="A23" s="34"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
       <c r="G23" s="39"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
@@ -1627,10 +1632,10 @@
       <c r="N23" s="36"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
       <c r="G24" s="44" t="s">
         <v>42</v>
       </c>
@@ -1649,62 +1654,62 @@
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="G25" s="51" t="s">
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="G25" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="66"/>
+      <c r="I25" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="49"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="68"/>
     </row>
     <row r="26" spans="1:14" ht="25.5" customHeight="1">
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="60"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="49"/>
     </row>
     <row r="27" spans="1:14" ht="25.5" customHeight="1">
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="49"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="68"/>
     </row>
     <row r="28" spans="1:14" ht="25.5" customHeight="1">
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="68"/>
     </row>
     <row r="29" spans="1:14" ht="25.5" customHeight="1">
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="49"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="68"/>
     </row>
     <row r="30" spans="1:14" ht="25.5" customHeight="1"/>
     <row r="31" spans="1:14" ht="14.25" customHeight="1"/>
@@ -2679,30 +2684,14 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="I25:J25"/>
@@ -2714,22 +2703,38 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
